--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/GiaThueTn/FileExcelMauGiaThueTaiNguyen (1)240016032.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/GiaThueTn/FileExcelMauGiaThueTaiNguyen (1)240016032.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\GiaThueTn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD955B-7055-4A0F-9552-EBC3012C71CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F52018-CD6F-4B65-B89E-96208EB1B8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,22 +73,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -96,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -136,9 +135,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,10 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -475,94 +475,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="7" width="22" style="2" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="10" max="10" width="22" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J3" s="8">
         <v>5000</v>
       </c>
     </row>
@@ -571,6 +571,11 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="J3:J1048576" xr:uid="{2940C65E-9165-46FA-BD20-753F5F86DCE4}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
